--- a/oev_sans_comptage.xlsx
+++ b/oev_sans_comptage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>site</t>
   </si>
@@ -61,6 +61,9 @@
     <t>FOP/HCPT</t>
   </si>
   <si>
+    <t>PAP/HFSC</t>
+  </si>
+  <si>
     <t>PAP/OMFP</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>CAP/HUJU/PED00948</t>
   </si>
   <si>
-    <t>PAP/NPFS/ST01138</t>
-  </si>
-  <si>
     <t>PAP/NPFS/ST02240</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
     <t>FOP/HCPT/ST00228</t>
   </si>
   <si>
+    <t>PAP/HFSC/ST03288</t>
+  </si>
+  <si>
     <t>FOP/HCPT/ST00515</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>PAP/OMFP/ST05298</t>
   </si>
   <si>
-    <t>PAP/NPFS/ST03016</t>
-  </si>
-  <si>
     <t>PAP/HBMP/ST05200</t>
   </si>
   <si>
@@ -145,9 +145,6 @@
     <t>PAP/HSFS/ST01749</t>
   </si>
   <si>
-    <t>PAP/NPFS/ST04404</t>
-  </si>
-  <si>
     <t>PAP/HBMP/ST05296</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
   </si>
   <si>
     <t>FOP/HCPT/ST01300</t>
-  </si>
-  <si>
-    <t>PAP/HOCH/ST00559</t>
-  </si>
-  <si>
-    <t>PAP/HOCH/ST00577</t>
   </si>
   <si>
     <t>PAP/HOCH/ST00569</t>
@@ -555,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2">
         <v>45807</v>
@@ -636,209 +627,209 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2">
-        <v>45805</v>
+        <v>45783</v>
       </c>
       <c r="J3" s="2">
-        <v>40749</v>
+        <v>41571</v>
       </c>
       <c r="K3" s="2">
-        <v>45411</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2">
-        <v>45783</v>
+        <v>45566</v>
       </c>
       <c r="J4" s="2">
-        <v>41571</v>
+        <v>42657</v>
       </c>
       <c r="K4" s="2">
-        <v>45408</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2">
-        <v>45566</v>
+        <v>45824</v>
       </c>
       <c r="J5" s="2">
-        <v>42657</v>
+        <v>42257</v>
       </c>
       <c r="K5" s="2">
-        <v>45604</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2">
-        <v>45824</v>
+        <v>45638</v>
       </c>
       <c r="J6" s="2">
-        <v>42257</v>
+        <v>43136</v>
       </c>
       <c r="K6" s="2">
-        <v>45343</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2">
-        <v>45638</v>
+        <v>45681</v>
       </c>
       <c r="J7" s="2">
-        <v>43136</v>
+        <v>42906</v>
       </c>
       <c r="K7" s="2">
-        <v>45306</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2">
-        <v>45681</v>
+        <v>45610</v>
       </c>
       <c r="J8" s="2">
-        <v>42906</v>
+        <v>43765</v>
       </c>
       <c r="K8" s="2">
-        <v>45790</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -846,25 +837,25 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2">
         <v>45219</v>
@@ -881,25 +872,25 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2">
         <v>45588</v>
@@ -916,25 +907,25 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2">
         <v>45691</v>
@@ -951,25 +942,25 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2">
         <v>45782</v>
@@ -983,28 +974,28 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2">
         <v>45496</v>
@@ -1018,37 +1009,37 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I14" s="2">
-        <v>45768</v>
+        <v>45363</v>
       </c>
       <c r="J14" s="2">
-        <v>43277</v>
+        <v>44980</v>
       </c>
       <c r="K14" s="2">
-        <v>45825</v>
+        <v>45387</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1056,139 +1047,139 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2">
-        <v>45363</v>
+        <v>45056</v>
       </c>
       <c r="J15" s="2">
-        <v>44980</v>
+        <v>45215</v>
       </c>
       <c r="K15" s="2">
-        <v>45387</v>
+        <v>45123</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I16" s="2">
-        <v>45056</v>
+        <v>45828</v>
       </c>
       <c r="J16" s="2">
-        <v>45215</v>
+        <v>45226</v>
       </c>
       <c r="K16" s="2">
-        <v>45123</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I17" s="2">
-        <v>45828</v>
+        <v>45399</v>
       </c>
       <c r="J17" s="2">
-        <v>45226</v>
+        <v>45364</v>
       </c>
       <c r="K17" s="2">
-        <v>45411</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
       <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="2">
-        <v>45399</v>
+        <v>45516</v>
       </c>
       <c r="J18" s="2">
-        <v>45364</v>
+        <v>45436</v>
       </c>
       <c r="K18" s="2">
-        <v>45461</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1196,394 +1187,254 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I19" s="2">
-        <v>45516</v>
+        <v>45393</v>
       </c>
       <c r="J19" s="2">
+        <v>45393</v>
+      </c>
+      <c r="K19" s="2">
         <v>45436</v>
-      </c>
-      <c r="K19" s="2">
-        <v>45540</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>59</v>
-      </c>
       <c r="I20" s="2">
-        <v>45649</v>
+        <v>45617</v>
       </c>
       <c r="J20" s="2">
-        <v>45323</v>
+        <v>45076</v>
       </c>
       <c r="K20" s="2">
-        <v>45663</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I21" s="2">
-        <v>45393</v>
+        <v>45673</v>
       </c>
       <c r="J21" s="2">
-        <v>45393</v>
+        <v>45526</v>
       </c>
       <c r="K21" s="2">
-        <v>45436</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>17</v>
       </c>
       <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="2">
-        <v>45617</v>
-      </c>
       <c r="J22" s="2">
-        <v>45076</v>
-      </c>
-      <c r="K22" s="2">
-        <v>45645</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I23" s="2">
-        <v>45673</v>
+        <v>45604</v>
       </c>
       <c r="J23" s="2">
-        <v>45526</v>
+        <v>45509</v>
       </c>
       <c r="K23" s="2">
-        <v>45704</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="2">
+        <v>45485</v>
       </c>
       <c r="J24" s="2">
-        <v>44972</v>
+        <v>44404</v>
+      </c>
+      <c r="K24" s="2">
+        <v>45517</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="2">
-        <v>45604</v>
+        <v>53</v>
       </c>
       <c r="J25" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K25" s="2">
-        <v>45625</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I26" s="2">
-        <v>45485</v>
+        <v>45636</v>
       </c>
       <c r="J26" s="2">
-        <v>44404</v>
+        <v>45636</v>
       </c>
       <c r="K26" s="2">
-        <v>45517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="2">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" s="2">
-        <v>45576</v>
-      </c>
-      <c r="J28" s="2">
-        <v>45576</v>
-      </c>
-      <c r="K28" s="2">
-        <v>45639</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="2">
-        <v>45645</v>
-      </c>
-      <c r="J29" s="2">
-        <v>45645</v>
-      </c>
-      <c r="K29" s="2">
-        <v>45665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="2">
-        <v>45636</v>
-      </c>
-      <c r="J30" s="2">
-        <v>45636</v>
-      </c>
-      <c r="K30" s="2">
         <v>45665</v>
       </c>
     </row>

--- a/oev_sans_comptage.xlsx
+++ b/oev_sans_comptage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>site</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>PAP/HBMP/ST05200</t>
-  </si>
-  <si>
-    <t>PAP/OMFP/ST05770</t>
   </si>
   <si>
     <t>PAP/NPFS/ST04368</t>
@@ -546,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +598,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2">
         <v>45807</v>
@@ -636,16 +633,16 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2">
         <v>45783</v>
@@ -671,25 +668,25 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2">
-        <v>45566</v>
+        <v>45604</v>
       </c>
       <c r="J4" s="2">
         <v>42657</v>
       </c>
       <c r="K4" s="2">
-        <v>45604</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -706,16 +703,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2">
         <v>45824</v>
@@ -741,19 +738,19 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2">
-        <v>45638</v>
+        <v>45770</v>
       </c>
       <c r="J6" s="2">
         <v>43136</v>
@@ -776,16 +773,16 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2">
         <v>45681</v>
@@ -811,16 +808,16 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2">
         <v>45610</v>
@@ -846,16 +843,16 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2">
         <v>45219</v>
@@ -881,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2">
         <v>45588</v>
@@ -916,16 +913,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2">
         <v>45691</v>
@@ -951,16 +948,16 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
         <v>54</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
       </c>
       <c r="I12" s="2">
         <v>45782</v>
@@ -986,16 +983,16 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2">
         <v>45496</v>
@@ -1021,30 +1018,30 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2">
-        <v>45363</v>
+        <v>45686</v>
       </c>
       <c r="J14" s="2">
         <v>44980</v>
       </c>
       <c r="K14" s="2">
-        <v>45387</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1053,33 +1050,33 @@
         <v>39</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="2">
-        <v>45056</v>
+        <v>45828</v>
       </c>
       <c r="J15" s="2">
-        <v>45215</v>
+        <v>45226</v>
       </c>
       <c r="K15" s="2">
-        <v>45123</v>
+        <v>45411</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1088,10 +1085,10 @@
         <v>40</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -1100,21 +1097,21 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="2">
-        <v>45828</v>
+        <v>45399</v>
       </c>
       <c r="J16" s="2">
-        <v>45226</v>
+        <v>45364</v>
       </c>
       <c r="K16" s="2">
-        <v>45411</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1123,33 +1120,33 @@
         <v>41</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="2">
-        <v>45399</v>
+        <v>45856</v>
       </c>
       <c r="J17" s="2">
-        <v>45364</v>
+        <v>45436</v>
       </c>
       <c r="K17" s="2">
-        <v>45461</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1158,138 +1155,126 @@
         <v>42</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="2">
-        <v>45516</v>
+        <v>45826</v>
       </c>
       <c r="J18" s="2">
-        <v>45436</v>
+        <v>45393</v>
       </c>
       <c r="K18" s="2">
-        <v>45540</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>54</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
       <c r="I19" s="2">
-        <v>45393</v>
+        <v>45617</v>
       </c>
       <c r="J19" s="2">
-        <v>45393</v>
+        <v>45076</v>
       </c>
       <c r="K19" s="2">
-        <v>45436</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
       </c>
       <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>54</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
       <c r="I20" s="2">
-        <v>45617</v>
+        <v>45847</v>
       </c>
       <c r="J20" s="2">
-        <v>45076</v>
+        <v>45526</v>
       </c>
       <c r="K20" s="2">
-        <v>45645</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="2">
-        <v>45673</v>
-      </c>
       <c r="J21" s="2">
-        <v>45526</v>
-      </c>
-      <c r="K21" s="2">
-        <v>45704</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1298,21 +1283,33 @@
         <v>46</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
       </c>
-      <c r="F22" t="s">
-        <v>54</v>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2">
+        <v>45604</v>
       </c>
       <c r="J22" s="2">
-        <v>44972</v>
+        <v>45509</v>
+      </c>
+      <c r="K22" s="2">
+        <v>45625</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1321,10 +1318,10 @@
         <v>47</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -1333,21 +1330,21 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" s="2">
-        <v>45604</v>
+        <v>45485</v>
       </c>
       <c r="J23" s="2">
-        <v>45509</v>
+        <v>44404</v>
       </c>
       <c r="K23" s="2">
-        <v>45625</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1356,33 +1353,21 @@
         <v>48</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="2">
-        <v>45485</v>
+        <v>52</v>
       </c>
       <c r="J24" s="2">
-        <v>44404</v>
-      </c>
-      <c r="K24" s="2">
-        <v>45517</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -1391,7 +1376,7 @@
         <v>49</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
@@ -1399,42 +1384,19 @@
       <c r="F25" t="s">
         <v>53</v>
       </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="2">
+        <v>45636</v>
+      </c>
       <c r="J25" s="2">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="2">
         <v>45636</v>
       </c>
-      <c r="J26" s="2">
-        <v>45636</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="K25" s="2">
         <v>45665</v>
       </c>
     </row>

--- a/oev_sans_comptage.xlsx
+++ b/oev_sans_comptage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>site</t>
   </si>
@@ -52,69 +52,45 @@
     <t>CAP/CMBV</t>
   </si>
   <si>
-    <t>PAP/NPFS</t>
-  </si>
-  <si>
     <t>MCH/DSCA</t>
   </si>
   <si>
     <t>FOP/HCPT</t>
   </si>
   <si>
-    <t>PAP/HFSC</t>
-  </si>
-  <si>
     <t>PAP/OMFP</t>
   </si>
   <si>
     <t>PAP/HBMP</t>
   </si>
   <si>
-    <t>PAP/HSFS</t>
-  </si>
-  <si>
     <t>GON/CDIR</t>
   </si>
   <si>
-    <t>CAP/HSCM</t>
-  </si>
-  <si>
-    <t>PAP/CMSP</t>
-  </si>
-  <si>
     <t>PAP/HOCH</t>
   </si>
   <si>
     <t>CAP</t>
   </si>
   <si>
+    <t>GON</t>
+  </si>
+  <si>
     <t>PAP</t>
   </si>
   <si>
-    <t>GON</t>
-  </si>
-  <si>
-    <t>CAP/HUJU/PED00948</t>
-  </si>
-  <si>
-    <t>PAP/NPFS/ST02240</t>
+    <t>CAP/CMBV/ST02199</t>
   </si>
   <si>
     <t>MCH/DSCA/ST00810</t>
   </si>
   <si>
-    <t>PAP/NPFS/ST02591</t>
-  </si>
-  <si>
     <t>MCH/DSCA/ST00929</t>
   </si>
   <si>
     <t>FOP/HCPT/ST00228</t>
   </si>
   <si>
-    <t>PAP/HFSC/ST03288</t>
-  </si>
-  <si>
     <t>FOP/HCPT/ST00515</t>
   </si>
   <si>
@@ -124,64 +100,46 @@
     <t>FOP/HCPT/ST00548</t>
   </si>
   <si>
-    <t>PAP/NPFS/ST04031</t>
-  </si>
-  <si>
     <t>PAP/OMFP/ST05298</t>
   </si>
   <si>
     <t>PAP/HBMP/ST05200</t>
   </si>
   <si>
-    <t>PAP/NPFS/ST04368</t>
-  </si>
-  <si>
     <t>FOP/HCPT/ST01238</t>
   </si>
   <si>
-    <t>PAP/HSFS/ST01749</t>
-  </si>
-  <si>
     <t>PAP/HBMP/ST05296</t>
   </si>
   <si>
     <t>GON/CDIR/ST02200</t>
   </si>
   <si>
-    <t>CAP/HSCM/ST04895</t>
-  </si>
-  <si>
     <t>PAP/OMFP/ST05672</t>
   </si>
   <si>
-    <t>PAP/HSFS/ST01788</t>
-  </si>
-  <si>
-    <t>PAP/CMSP/ST01835</t>
-  </si>
-  <si>
     <t>FOP/HCPT/ST01300</t>
   </si>
   <si>
     <t>PAP/HOCH/ST00569</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>club_9_12</t>
   </si>
   <si>
     <t>club_13_17</t>
   </si>
   <si>
+    <t>OUI</t>
+  </si>
+  <si>
     <t>NON</t>
-  </si>
-  <si>
-    <t>OUI</t>
   </si>
 </sst>
 </file>
@@ -543,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,34 +547,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2">
-        <v>45807</v>
+        <v>45425</v>
       </c>
       <c r="J2" s="2">
-        <v>42871</v>
+        <v>42460</v>
       </c>
       <c r="K2" s="2">
-        <v>45644</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -624,104 +582,104 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2">
-        <v>45783</v>
+        <v>45604</v>
       </c>
       <c r="J3" s="2">
-        <v>41571</v>
+        <v>42657</v>
       </c>
       <c r="K3" s="2">
-        <v>45408</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2">
-        <v>45604</v>
+        <v>45638</v>
       </c>
       <c r="J4" s="2">
-        <v>42657</v>
+        <v>43136</v>
       </c>
       <c r="K4" s="2">
-        <v>45644</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2">
-        <v>45824</v>
+        <v>45681</v>
       </c>
       <c r="J5" s="2">
-        <v>42257</v>
+        <v>42906</v>
       </c>
       <c r="K5" s="2">
-        <v>45343</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -729,104 +687,104 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2">
-        <v>45770</v>
+        <v>45219</v>
       </c>
       <c r="J6" s="2">
-        <v>43136</v>
+        <v>43524</v>
       </c>
       <c r="K6" s="2">
-        <v>45306</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
-        <v>45681</v>
+        <v>45588</v>
       </c>
       <c r="J7" s="2">
-        <v>42906</v>
+        <v>43658</v>
       </c>
       <c r="K7" s="2">
-        <v>45790</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2">
-        <v>45610</v>
+        <v>45691</v>
       </c>
       <c r="J8" s="2">
-        <v>43765</v>
+        <v>43584</v>
       </c>
       <c r="K8" s="2">
-        <v>45656</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -834,139 +792,139 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2">
-        <v>45219</v>
+        <v>45496</v>
       </c>
       <c r="J9" s="2">
-        <v>43524</v>
+        <v>44064</v>
       </c>
       <c r="K9" s="2">
-        <v>45294</v>
+        <v>45531</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2">
-        <v>45588</v>
+        <v>45686</v>
       </c>
       <c r="J10" s="2">
-        <v>43658</v>
+        <v>44980</v>
       </c>
       <c r="K10" s="2">
-        <v>45588</v>
+        <v>45694</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2">
-        <v>45691</v>
+        <v>45399</v>
       </c>
       <c r="J11" s="2">
-        <v>43584</v>
+        <v>45364</v>
       </c>
       <c r="K11" s="2">
-        <v>45771</v>
+        <v>45461</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2">
-        <v>45782</v>
+        <v>45826</v>
       </c>
       <c r="J12" s="2">
-        <v>44515</v>
+        <v>45393</v>
       </c>
       <c r="K12" s="2">
-        <v>45649</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -974,429 +932,114 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2">
-        <v>45496</v>
+        <v>45617</v>
       </c>
       <c r="J13" s="2">
-        <v>44064</v>
+        <v>45076</v>
       </c>
       <c r="K13" s="2">
-        <v>45531</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="2">
-        <v>45686</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2">
-        <v>44980</v>
-      </c>
-      <c r="K14" s="2">
-        <v>45694</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="2">
-        <v>45828</v>
+        <v>38</v>
       </c>
       <c r="J15" s="2">
-        <v>45226</v>
-      </c>
-      <c r="K15" s="2">
-        <v>45411</v>
+        <v>45561</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2">
-        <v>45399</v>
+        <v>45636</v>
       </c>
       <c r="J16" s="2">
-        <v>45364</v>
+        <v>45636</v>
       </c>
       <c r="K16" s="2">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="2">
-        <v>45856</v>
-      </c>
-      <c r="J17" s="2">
-        <v>45436</v>
-      </c>
-      <c r="K17" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="2">
-        <v>45826</v>
-      </c>
-      <c r="J18" s="2">
-        <v>45393</v>
-      </c>
-      <c r="K18" s="2">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="2">
-        <v>45617</v>
-      </c>
-      <c r="J19" s="2">
-        <v>45076</v>
-      </c>
-      <c r="K19" s="2">
-        <v>45645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="2">
-        <v>45847</v>
-      </c>
-      <c r="J20" s="2">
-        <v>45526</v>
-      </c>
-      <c r="K20" s="2">
-        <v>45704</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="2">
-        <v>44972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="2">
-        <v>45604</v>
-      </c>
-      <c r="J22" s="2">
-        <v>45509</v>
-      </c>
-      <c r="K22" s="2">
-        <v>45625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="2">
-        <v>45485</v>
-      </c>
-      <c r="J23" s="2">
-        <v>44404</v>
-      </c>
-      <c r="K23" s="2">
-        <v>45517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="2">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="2">
-        <v>45636</v>
-      </c>
-      <c r="J25" s="2">
-        <v>45636</v>
-      </c>
-      <c r="K25" s="2">
         <v>45665</v>
       </c>
     </row>
